--- a/data/trans_orig/P33B2_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P33B2_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>24681</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16782</v>
+        <v>15916</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37200</v>
+        <v>35934</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04482394214361581</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03047771071738409</v>
+        <v>0.02890552801326011</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06755998069435534</v>
+        <v>0.06526180067433644</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -762,19 +762,19 @@
         <v>22995</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16058</v>
+        <v>16100</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31277</v>
+        <v>32205</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0470816306467501</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0328777287547249</v>
+        <v>0.03296322137924011</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06403903250120546</v>
+        <v>0.06593866792183546</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -783,19 +783,19 @@
         <v>47676</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>37928</v>
+        <v>35793</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>62003</v>
+        <v>60474</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0458852017238456</v>
+        <v>0.04588520172384559</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03650362260024852</v>
+        <v>0.03444845103266155</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05967352221357988</v>
+        <v>0.05820222349175336</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>38689</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27087</v>
+        <v>27425</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>52497</v>
+        <v>52136</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.07026558494111917</v>
+        <v>0.07026558494111919</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04919295493532616</v>
+        <v>0.04980698535804998</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09534203967346663</v>
+        <v>0.09468576029632716</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>76</v>
@@ -833,19 +833,19 @@
         <v>49272</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>39117</v>
+        <v>39397</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>61210</v>
+        <v>60886</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1008831363711277</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08009022191383744</v>
+        <v>0.08066379892281424</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1253242867692765</v>
+        <v>0.1246618504332448</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>118</v>
@@ -854,19 +854,19 @@
         <v>87962</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>73701</v>
+        <v>72448</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>105819</v>
+        <v>104916</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08465781386604185</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07093234761975892</v>
+        <v>0.06972639750919674</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1018444858453299</v>
+        <v>0.1009745855083653</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>106737</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>91595</v>
+        <v>87636</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>129300</v>
+        <v>126089</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1938495932323903</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1663486114411517</v>
+        <v>0.159159769898125</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2348267062134662</v>
+        <v>0.228994878684997</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>175</v>
@@ -904,19 +904,19 @@
         <v>117482</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>102388</v>
+        <v>100424</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>135341</v>
+        <v>136901</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2405391459058538</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2096351668627432</v>
+        <v>0.2056141048837624</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2771052117548597</v>
+        <v>0.2802986501091408</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>292</v>
@@ -925,19 +925,19 @@
         <v>224219</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>198226</v>
+        <v>201127</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>249510</v>
+        <v>252450</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2157967019688558</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1907802502373859</v>
+        <v>0.1935716288808194</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2401372901168779</v>
+        <v>0.2429675503705202</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>380511</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>355328</v>
+        <v>357816</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>400545</v>
+        <v>402640</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6910608796828748</v>
+        <v>0.6910608796828747</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6453261280476063</v>
+        <v>0.6498447732009257</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7274459035865412</v>
+        <v>0.7312511298721093</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>401</v>
@@ -975,19 +975,19 @@
         <v>298661</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>279697</v>
+        <v>279998</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>317305</v>
+        <v>317613</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.6114960870762683</v>
+        <v>0.6114960870762685</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.572667502783724</v>
+        <v>0.5732830807200218</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6496689088365696</v>
+        <v>0.6502989055354415</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>770</v>
@@ -996,19 +996,19 @@
         <v>679172</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>650458</v>
+        <v>648716</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>708337</v>
+        <v>707096</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6536602824412568</v>
+        <v>0.6536602824412567</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6260250127353139</v>
+        <v>0.6243478727912218</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.681729296432218</v>
+        <v>0.6805352461022167</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>25189</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16775</v>
+        <v>17199</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>35495</v>
+        <v>35742</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05212812328782453</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03471531479099083</v>
+        <v>0.03559352250857137</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07345720286927902</v>
+        <v>0.0739676736143957</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>49</v>
@@ -1121,19 +1121,19 @@
         <v>34079</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>24929</v>
+        <v>25383</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>43968</v>
+        <v>45002</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0805382748639373</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05891286820120763</v>
+        <v>0.05998615023967216</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1039076665196237</v>
+        <v>0.106351878277696</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>78</v>
@@ -1142,19 +1142,19 @@
         <v>59268</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>47708</v>
+        <v>46703</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>73819</v>
+        <v>73080</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06539174803765108</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05263717320665429</v>
+        <v>0.05152820957579886</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0814463568308629</v>
+        <v>0.08063072181364923</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>32329</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21667</v>
+        <v>23251</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43493</v>
+        <v>45800</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.06690433920766391</v>
+        <v>0.06690433920766389</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04484052497672349</v>
+        <v>0.04811665253067293</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09000862610210505</v>
+        <v>0.09478234639997872</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>68</v>
@@ -1192,19 +1192,19 @@
         <v>45333</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35509</v>
+        <v>35337</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56731</v>
+        <v>57421</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1071336743658612</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08391635216841868</v>
+        <v>0.08351055015041997</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1340699795626894</v>
+        <v>0.1357010635855516</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>104</v>
@@ -1213,19 +1213,19 @@
         <v>77662</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>63464</v>
+        <v>63471</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>92422</v>
+        <v>93545</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.08568589354199461</v>
+        <v>0.0856858935419946</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07002167682540865</v>
+        <v>0.07002912738819113</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1019706543267025</v>
+        <v>0.103210569315952</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>104924</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>88062</v>
+        <v>88623</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>123777</v>
+        <v>125867</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2171384589388953</v>
+        <v>0.2171384589388952</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1822422049756287</v>
+        <v>0.183404022787428</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2561540082603421</v>
+        <v>0.260479548342636</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>153</v>
@@ -1263,19 +1263,19 @@
         <v>101602</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>87833</v>
+        <v>87538</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>118020</v>
+        <v>116995</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2401134012478547</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2075728303186168</v>
+        <v>0.2068754229220533</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2789118540831625</v>
+        <v>0.2764893509516919</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>268</v>
@@ -1284,19 +1284,19 @@
         <v>206526</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>185039</v>
+        <v>185628</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>227739</v>
+        <v>231755</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2278645901465573</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2041570360292443</v>
+        <v>0.2048071630487002</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2512696359068633</v>
+        <v>0.2556999618212482</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>320770</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>298979</v>
+        <v>300132</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>341579</v>
+        <v>339770</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6638290785656163</v>
+        <v>0.6638290785656162</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6187324869678974</v>
+        <v>0.6211193151689974</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7068927147651226</v>
+        <v>0.7031479946495095</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>320</v>
@@ -1334,19 +1334,19 @@
         <v>242129</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>225009</v>
+        <v>225863</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>260497</v>
+        <v>259549</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5722146495223467</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.531755578684675</v>
+        <v>0.5337756834702972</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6156246422566864</v>
+        <v>0.6133833174653054</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>621</v>
@@ -1355,19 +1355,19 @@
         <v>562899</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>537639</v>
+        <v>533589</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>590012</v>
+        <v>589127</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.6210577682737971</v>
+        <v>0.6210577682737969</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.593187662825351</v>
+        <v>0.5887193574806515</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6509723627608172</v>
+        <v>0.6499964084953078</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>45204</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>33719</v>
+        <v>33725</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>59304</v>
+        <v>58667</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0958495491187232</v>
+        <v>0.09584954911872319</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07149670529776317</v>
+        <v>0.07150909693172709</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1257476960848424</v>
+        <v>0.1243972158121127</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>33</v>
@@ -1480,19 +1480,19 @@
         <v>20286</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14790</v>
+        <v>14225</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28497</v>
+        <v>27417</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1081957379724708</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07888268235128336</v>
+        <v>0.07586918749651075</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1519869448021173</v>
+        <v>0.1462262215209001</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>84</v>
@@ -1501,19 +1501,19 @@
         <v>65490</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>51730</v>
+        <v>53131</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>80225</v>
+        <v>82277</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.09936167972170955</v>
+        <v>0.09936167972170952</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07848411527249616</v>
+        <v>0.08061073270824597</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.121717248617522</v>
+        <v>0.1248307852565649</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>40316</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>30252</v>
+        <v>29582</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>53952</v>
+        <v>53738</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.08548511215204409</v>
+        <v>0.0854851121520441</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.06414551300245022</v>
+        <v>0.06272543772767707</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1143981848304433</v>
+        <v>0.1139458861715069</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>42</v>
@@ -1551,19 +1551,19 @@
         <v>29743</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>21536</v>
+        <v>22508</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>39439</v>
+        <v>40791</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1586311822609622</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1148606128578863</v>
+        <v>0.1200427578662802</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2103443219627865</v>
+        <v>0.2175561094723472</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>88</v>
@@ -1572,19 +1572,19 @@
         <v>70059</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>54451</v>
+        <v>56217</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>85553</v>
+        <v>87589</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1062930355007733</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.08261252701347696</v>
+        <v>0.08529175533717617</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1298015265839742</v>
+        <v>0.1328898635897756</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>94073</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>78746</v>
+        <v>79131</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>110961</v>
+        <v>112480</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1994703903307715</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1669724718637114</v>
+        <v>0.167787671708826</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2352799922033604</v>
+        <v>0.2385006160859201</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>73</v>
@@ -1622,19 +1622,19 @@
         <v>41924</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>33392</v>
+        <v>33435</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>50811</v>
+        <v>51405</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.223599266089575</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.178091902679695</v>
+        <v>0.1783217390682765</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2709980370799825</v>
+        <v>0.2741653482519845</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>186</v>
@@ -1643,19 +1643,19 @@
         <v>135997</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>117476</v>
+        <v>118263</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>156329</v>
+        <v>155809</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2063343516691262</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1782352900174998</v>
+        <v>0.1794291712435284</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2371817632174231</v>
+        <v>0.2363938295940379</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>292020</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>270629</v>
+        <v>270585</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>311910</v>
+        <v>312134</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6191949483984613</v>
+        <v>0.6191949483984612</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5738387932299865</v>
+        <v>0.5737457189555373</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6613706686472752</v>
+        <v>0.661844170655576</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>141</v>
@@ -1693,19 +1693,19 @@
         <v>95544</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>85059</v>
+        <v>84769</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>107183</v>
+        <v>106717</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5095738136769919</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4536577670434905</v>
+        <v>0.4521096188111418</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5716513808189236</v>
+        <v>0.5691669980444624</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>419</v>
@@ -1714,19 +1714,19 @@
         <v>387563</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>362666</v>
+        <v>363196</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>412553</v>
+        <v>410853</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5880109331083911</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5502363515092447</v>
+        <v>0.551040119112468</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6259248432915084</v>
+        <v>0.6233455132082155</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>90463</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>74073</v>
+        <v>74405</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>109667</v>
+        <v>108976</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07992571818631289</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06544458536884708</v>
+        <v>0.06573833103156504</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09689238140014789</v>
+        <v>0.09628231424469577</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>115</v>
@@ -1839,19 +1839,19 @@
         <v>80810</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>66832</v>
+        <v>67496</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>96075</v>
+        <v>97040</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.09383324832946335</v>
+        <v>0.09383324832946334</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07760193954737542</v>
+        <v>0.07837331275841328</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1115583743788949</v>
+        <v>0.1126781334511262</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>218</v>
@@ -1860,19 +1860,19 @@
         <v>171274</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>150045</v>
+        <v>149663</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>197294</v>
+        <v>196535</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08593525056801381</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07528373281405989</v>
+        <v>0.07509240689051623</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09899065854137326</v>
+        <v>0.09860993378570966</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>92698</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>75064</v>
+        <v>75787</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>110589</v>
+        <v>114118</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08189999130579682</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06632011367751041</v>
+        <v>0.0669590051590245</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09770692016268379</v>
+        <v>0.1008252790208254</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>157</v>
@@ -1910,19 +1910,19 @@
         <v>100175</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>85756</v>
+        <v>86027</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>115245</v>
+        <v>117732</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1163189987774261</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09957608928607692</v>
+        <v>0.09989088778802573</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1338171476487587</v>
+        <v>0.1367047852439305</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>264</v>
@@ -1931,19 +1931,19 @@
         <v>192873</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>172264</v>
+        <v>170425</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>219648</v>
+        <v>219246</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09677266372266249</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08643218412711154</v>
+        <v>0.08550967447927257</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1102068604940559</v>
+        <v>0.1100051663829378</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>209884</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>184111</v>
+        <v>185151</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>235740</v>
+        <v>237071</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1854357804635379</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1626650284104946</v>
+        <v>0.1635839976563296</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.208279912041039</v>
+        <v>0.2094553240756776</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>329</v>
@@ -1981,19 +1981,19 @@
         <v>197025</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>177607</v>
+        <v>178341</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>217742</v>
+        <v>218725</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2287771969370138</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2062294512895186</v>
+        <v>0.2070817305036314</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2528325704830642</v>
+        <v>0.2539738636848795</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>573</v>
@@ -2002,19 +2002,19 @@
         <v>406910</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>372857</v>
+        <v>373304</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>442385</v>
+        <v>441291</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2041638826560338</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.187078409510182</v>
+        <v>0.1873027419043732</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2219634664519919</v>
+        <v>0.2214142367488952</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>738798</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>706208</v>
+        <v>707410</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>773075</v>
+        <v>771036</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6527385100443523</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6239453369638696</v>
+        <v>0.6250072913463678</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6830231280497899</v>
+        <v>0.6812220982765855</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>629</v>
@@ -2052,19 +2052,19 @@
         <v>483200</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>457903</v>
+        <v>458537</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>505271</v>
+        <v>507756</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5610705559560969</v>
+        <v>0.5610705559560968</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5316965702210134</v>
+        <v>0.5324330109305534</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5866985021897295</v>
+        <v>0.589583954196727</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1293</v>
@@ -2073,19 +2073,19 @@
         <v>1221998</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1178167</v>
+        <v>1178614</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1261860</v>
+        <v>1265753</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6131282030532899</v>
+        <v>0.6131282030532901</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5911364164287543</v>
+        <v>0.5913606933604031</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6331289110328706</v>
+        <v>0.6350823705211411</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>31392</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>21995</v>
+        <v>21633</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>43636</v>
+        <v>41449</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.05537732218633831</v>
+        <v>0.0553773221863383</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03880004505882272</v>
+        <v>0.03816178905889554</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07697558627223705</v>
+        <v>0.07311806066143696</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>179</v>
@@ -2198,19 +2198,19 @@
         <v>113428</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>97578</v>
+        <v>99129</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>130226</v>
+        <v>131349</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1366397444858174</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1175462465846588</v>
+        <v>0.1194140257580748</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1568744727266544</v>
+        <v>0.1582275173317933</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>217</v>
@@ -2219,19 +2219,19 @@
         <v>144821</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>125606</v>
+        <v>126075</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>166373</v>
+        <v>165352</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1036648787454091</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08991088016836934</v>
+        <v>0.09024650808732478</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1190926092619156</v>
+        <v>0.1183616354466993</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>53468</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>40000</v>
+        <v>40533</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>71546</v>
+        <v>71473</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.09431934958435124</v>
+        <v>0.09431934958435122</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0705616620043792</v>
+        <v>0.07150174007184781</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.126210280520659</v>
+        <v>0.1260803494103156</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>222</v>
@@ -2269,19 +2269,19 @@
         <v>131528</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>114556</v>
+        <v>113623</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>149001</v>
+        <v>147926</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1584434541019537</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1379985253784289</v>
+        <v>0.1368747635492267</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1794912632268228</v>
+        <v>0.1781970037136409</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>280</v>
@@ -2290,19 +2290,19 @@
         <v>184996</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>163824</v>
+        <v>162210</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>208240</v>
+        <v>206779</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1324230171354149</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1172679603996769</v>
+        <v>0.1161123605654688</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1490611898583649</v>
+        <v>0.1480152280523023</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>111880</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>92298</v>
+        <v>94052</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>132840</v>
+        <v>133633</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1973610043967092</v>
+        <v>0.1973610043967091</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1628171543734506</v>
+        <v>0.1659106484208341</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2343348475675933</v>
+        <v>0.2357332724033392</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>351</v>
@@ -2340,19 +2340,19 @@
         <v>202609</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>182999</v>
+        <v>184098</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>223338</v>
+        <v>223241</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2440702900337443</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.220446836278072</v>
+        <v>0.2217705501735807</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2690401945312281</v>
+        <v>0.2689244301989102</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>469</v>
@@ -2361,19 +2361,19 @@
         <v>314490</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>288624</v>
+        <v>285076</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>347128</v>
+        <v>344217</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2251164811374829</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2066011893512988</v>
+        <v>0.2040614423911684</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2484795835506004</v>
+        <v>0.2463955614641341</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>370141</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>345803</v>
+        <v>343925</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>394865</v>
+        <v>392399</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6529423238326013</v>
+        <v>0.6529423238326012</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6100082246971679</v>
+        <v>0.6066952609639947</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6965551880479264</v>
+        <v>0.6922065976462967</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>537</v>
@@ -2411,19 +2411,19 @@
         <v>382561</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>359490</v>
+        <v>358013</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>408032</v>
+        <v>407973</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.4608465113784846</v>
+        <v>0.4608465113784847</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4330538381981027</v>
+        <v>0.4312755090461853</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4915301254675222</v>
+        <v>0.4914588154585819</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>869</v>
@@ -2432,19 +2432,19 @@
         <v>752702</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>719022</v>
+        <v>717474</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>788270</v>
+        <v>786554</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.5387956229816931</v>
+        <v>0.538795622981693</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5146866206825186</v>
+        <v>0.5135789628215939</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5642552977004458</v>
+        <v>0.5630270464824482</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>7944</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2665</v>
+        <v>2577</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>23478</v>
+        <v>23461</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03348832255852958</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01123399803785647</v>
+        <v>0.0108609250105105</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09896751978929925</v>
+        <v>0.09889532726158279</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>151</v>
@@ -2557,19 +2557,19 @@
         <v>96413</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>81225</v>
+        <v>83032</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>112666</v>
+        <v>113392</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1141948658175909</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09620662479509014</v>
+        <v>0.09834618800321959</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1334460132771367</v>
+        <v>0.1343055963339919</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>157</v>
@@ -2578,19 +2578,19 @@
         <v>104357</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>87635</v>
+        <v>88507</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>125386</v>
+        <v>126002</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.09649197459666678</v>
+        <v>0.09649197459666679</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08103042481023807</v>
+        <v>0.08183684781339175</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1159363846598244</v>
+        <v>0.1165055471159631</v>
       </c>
     </row>
     <row r="30">
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10775</v>
+        <v>10553</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0141740424578872</v>
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04542186274624112</v>
+        <v>0.04448432666142331</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>167</v>
@@ -2628,19 +2628,19 @@
         <v>101368</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>86743</v>
+        <v>86583</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>118126</v>
+        <v>117020</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1200642331273348</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1027412878690424</v>
+        <v>0.1025524035094801</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1399133659422104</v>
+        <v>0.1386031829823274</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>169</v>
@@ -2649,19 +2649,19 @@
         <v>104730</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>88930</v>
+        <v>88806</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>123480</v>
+        <v>124343</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09683733663188025</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08222815551566942</v>
+        <v>0.08211280748360948</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1141736550059351</v>
+        <v>0.1149722068228127</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>15287</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>7246</v>
+        <v>7280</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>29329</v>
+        <v>28266</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.06444094193799378</v>
+        <v>0.0644409419379938</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03054476297689836</v>
+        <v>0.03068805227830771</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1236315919322426</v>
+        <v>0.1191521677110366</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>310</v>
@@ -2699,19 +2699,19 @@
         <v>179392</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>157976</v>
+        <v>158577</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>201152</v>
+        <v>200892</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2124793274233786</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1871134406004399</v>
+        <v>0.1878248800420493</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2382525597513376</v>
+        <v>0.2379450082334974</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>322</v>
@@ -2720,19 +2720,19 @@
         <v>194679</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>173511</v>
+        <v>170687</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>222327</v>
+        <v>218828</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1800072708968496</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1604344006353442</v>
+        <v>0.1578227409391592</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2055710273071852</v>
+        <v>0.2023355830852995</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>210634</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>193074</v>
+        <v>193828</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>221697</v>
+        <v>221501</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8878966930455895</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8138759785930518</v>
+        <v>0.8170523713161169</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9345304710098317</v>
+        <v>0.9337049810692083</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>531</v>
@@ -2770,19 +2770,19 @@
         <v>467108</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>440448</v>
+        <v>440316</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>498238</v>
+        <v>494343</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.5532615736316956</v>
+        <v>0.5532615736316958</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.521684698544818</v>
+        <v>0.5215279965728371</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5901334495933963</v>
+        <v>0.585519123897199</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>623</v>
@@ -2791,19 +2791,19 @@
         <v>677742</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>641350</v>
+        <v>637522</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>712197</v>
+        <v>709787</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6266634178746034</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5930136864673111</v>
+        <v>0.589474947836518</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6585214004412993</v>
+        <v>0.656292852615045</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>224874</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>198023</v>
+        <v>196950</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>254041</v>
+        <v>256304</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06534377311507045</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.05754158151674833</v>
+        <v>0.05722973257860436</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07381918974950841</v>
+        <v>0.07447694100223592</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>561</v>
@@ -2916,19 +2916,19 @@
         <v>368012</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>337626</v>
+        <v>337814</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>399093</v>
+        <v>397270</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1012504341940479</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.09289043019741462</v>
+        <v>0.09294216613373002</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1098016953034235</v>
+        <v>0.1093002271890599</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>814</v>
@@ -2937,19 +2937,19 @@
         <v>592886</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>553569</v>
+        <v>553405</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>635679</v>
+        <v>634257</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.08378748255009873</v>
+        <v>0.08378748255009874</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.07823124063545811</v>
+        <v>0.07820796878965382</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.08983508421382026</v>
+        <v>0.08963418520925799</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>260863</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>232463</v>
+        <v>230946</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>293238</v>
+        <v>295910</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.07580142423454239</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.06754904434237066</v>
+        <v>0.06710813414171977</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.08520907094657049</v>
+        <v>0.08598536340574137</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>732</v>
@@ -2987,19 +2987,19 @@
         <v>457420</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>426378</v>
+        <v>426218</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>490186</v>
+        <v>491122</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1258489862461848</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1173084539887142</v>
+        <v>0.117264639847833</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1348639960503863</v>
+        <v>0.1351214410630648</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1023</v>
@@ -3008,19 +3008,19 @@
         <v>718282</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>676634</v>
+        <v>674227</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>768588</v>
+        <v>766189</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1015087070599768</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.09562291629149208</v>
+        <v>0.09528276477035999</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1086180073328274</v>
+        <v>0.1082789126184877</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>642785</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>597008</v>
+        <v>594333</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>691271</v>
+        <v>687262</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1867804862733949</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1734786062249261</v>
+        <v>0.1727012401806483</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2008693669264973</v>
+        <v>0.1997044001093765</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1391</v>
@@ -3058,19 +3058,19 @@
         <v>840035</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>797971</v>
+        <v>798959</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>882284</v>
+        <v>886923</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2311174046785755</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2195441586606027</v>
+        <v>0.2198162034229756</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2427412154870469</v>
+        <v>0.2440175453597587</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2110</v>
@@ -3079,19 +3079,19 @@
         <v>1482821</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1422705</v>
+        <v>1420664</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1551908</v>
+        <v>1545890</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2095544567773935</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2010587831195694</v>
+        <v>0.2007703224498292</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2193180374364741</v>
+        <v>0.2184675476082333</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>2312873</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2248418</v>
+        <v>2255972</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>2366961</v>
+        <v>2377178</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.6720743163769923</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6533451152189153</v>
+        <v>0.6555402605862316</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6877914202453773</v>
+        <v>0.6907600543093853</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2559</v>
@@ -3129,19 +3129,19 @@
         <v>1969203</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1912998</v>
+        <v>1912247</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>2018401</v>
+        <v>2022514</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.5417831748811917</v>
+        <v>0.5417831748811918</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5263195843618022</v>
+        <v>0.5261130149601208</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5553190407856313</v>
+        <v>0.5564503899555057</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>4595</v>
@@ -3150,19 +3150,19 @@
         <v>4282076</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>4200474</v>
+        <v>4204900</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>4362472</v>
+        <v>4364369</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.605149353612531</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5936173565071193</v>
+        <v>0.5942427361414341</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6165111396555226</v>
+        <v>0.6167791447190631</v>
       </c>
     </row>
     <row r="38">
